--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -27,13 +27,13 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>anandhu.gopi@digitalmesh.com</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
-  </si>
-  <si>
     <t>Valid Login</t>
+  </si>
+  <si>
+    <t>jibindm</t>
+  </si>
+  <si>
+    <t>Jerrin@123</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,7 +405,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="12180" windowHeight="2235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="B1:F6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>User Name</t>
   </si>
@@ -34,6 +35,63 @@
   </si>
   <si>
     <t>Jerrin@123</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Business Type</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>S.G</t>
+  </si>
+  <si>
+    <t>Tank Type Desc</t>
+  </si>
+  <si>
+    <t>Proper Shipping Name</t>
+  </si>
+  <si>
+    <t>Primary Class</t>
+  </si>
+  <si>
+    <t>Secondary Classs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary Class </t>
+  </si>
+  <si>
+    <t>DED</t>
+  </si>
+  <si>
+    <t>Test Appearance 1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Test Product Name</t>
+  </si>
+  <si>
+    <t>Test Ship Name</t>
+  </si>
+  <si>
+    <t>3:Flammable liquid</t>
+  </si>
+  <si>
+    <t>2.3:Toxic gas</t>
+  </si>
+  <si>
+    <t>6.1:Toxic</t>
   </si>
 </sst>
 </file>
@@ -92,10 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,13 +492,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98.01</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="12180" windowHeight="2235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12180" windowHeight="2655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="B1:F6"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -70,9 +70,6 @@
     <t>Test Appearance 1</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>6.1:Toxic</t>
+  </si>
+  <si>
+    <t>T6</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -562,19 +562,19 @@
         <v>98.01</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12180" windowHeight="2655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12180" windowHeight="1755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>User Name</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>T6</t>
+  </si>
+  <si>
+    <t>caS Number</t>
+  </si>
+  <si>
+    <t>Nominal Temp Max</t>
+  </si>
+  <si>
+    <t>-8</t>
   </si>
 </sst>
 </file>
@@ -150,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,28 +502,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -521,88 +531,100 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>141250</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>98.01</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>User Name</t>
   </si>
@@ -101,6 +100,57 @@
   </si>
   <si>
     <t>-8</t>
+  </si>
+  <si>
+    <t>First Warning Temp Min</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>First Warning Temp Max</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>Second Warning Temp Min</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>Second Warning Temp Max</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Critical Temp Max</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>Critical Temp Low</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Loading Temp Min</t>
+  </si>
+  <si>
+    <t>Loading Temp Max</t>
+  </si>
+  <si>
+    <t>Discharge Temp Min</t>
+  </si>
+  <si>
+    <t>Discharge Temp Max</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -132,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,17 +205,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,9 +584,18 @@
     <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="22" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -560,8 +632,38 @@
       <c r="L1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -598,29 +700,59 @@
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="M2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:22">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:22">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:22">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:22">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>User Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Proper Shipping Name</t>
   </si>
   <si>
-    <t>Primary Class</t>
-  </si>
-  <si>
     <t>Secondary Classs</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>Test Ship Name</t>
-  </si>
-  <si>
-    <t>3:Flammable liquid</t>
   </si>
   <si>
     <t>2.3:Toxic gas</t>
@@ -565,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,30 +574,29 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="22" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="21" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -627,12 +620,12 @@
         <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -642,60 +635,57 @@
         <v>32</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="S1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>141250</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>98.01</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
@@ -716,43 +706,40 @@
         <v>37</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="U2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>User Name</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Regulated Transport Status</t>
+  </si>
+  <si>
+    <t>Regulated for Transport</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -222,7 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,9 +591,10 @@
     <col min="18" max="18" width="19.28515625" customWidth="1"/>
     <col min="19" max="19" width="19.5703125" customWidth="1"/>
     <col min="20" max="21" width="21.140625" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,11 +655,14 @@
       <c r="T1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -669,7 +678,7 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>98.01</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -717,29 +726,32 @@
       <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14235" windowHeight="1995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ProfileEdit" sheetId="2" r:id="rId2"/>
+    <sheet name="UserRegistration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>User Name</t>
   </si>
@@ -32,19 +33,25 @@
     <t>Valid Login</t>
   </si>
   <si>
-    <t>collier.chadrick@example.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Name </t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Telli</t>
-  </si>
-  <si>
-    <t>Kevin</t>
+    <t>vkoch@example.com</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Bergnam</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>DBsdssd</t>
   </si>
 </sst>
 </file>
@@ -83,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,15 +113,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,7 +458,7 @@
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -434,29 +468,107 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -4,19 +4,37 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14235" windowHeight="1995" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3315" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="ProfileEdit" sheetId="2" r:id="rId2"/>
-    <sheet name="UserRegistration" sheetId="3" r:id="rId3"/>
+    <sheet name="UserRegistration" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>hjgfg</t>
+  </si>
+  <si>
+    <t>fgf</t>
+  </si>
+  <si>
+    <t>First Namejj</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gh777b@cc.com</t>
+  </si>
   <si>
     <t>User Name</t>
   </si>
@@ -24,58 +42,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Valid</t>
+    <t>hickle.laurie@example.org</t>
   </si>
   <si>
     <t>Pass@123</t>
-  </si>
-  <si>
-    <t>Valid Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name </t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>vkoch@example.com</t>
-  </si>
-  <si>
-    <t>Heidi</t>
-  </si>
-  <si>
-    <t>Bergnam</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>DBsdssd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,57 +77,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,41 +377,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -489,29 +424,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="3" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -522,55 +457,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="6"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>